--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461311.9435822136</v>
+        <v>408073.1573279949</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12543988.80714599</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7750215.265937854</v>
+        <v>7622616.185043048</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9104710.737709351</v>
+        <v>9171228.953297561</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887084</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>146.8461210887084</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>129.3420634549342</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>6.396723986041543</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.3420634549343</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>146.8461210887084</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8461210887084</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8461210887084</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>146.8461210887084</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>146.8461210887084</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.086338041388994</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>161.8294550022489</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>129.3420634549344</v>
+        <v>6.396723986041382</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>99.34755379812178</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.77141835213729</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.838436914954059</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
-        <v>120.5036265399804</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U7" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8072380324131</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>182.5570120086798</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>22.3445448986976</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663199</v>
+        <v>15.4022924851448</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="X10" t="n">
-        <v>109.4085843673458</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>297.3641065091778</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835083</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>56.26529353280052</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>145.2477902017535</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>35.71650145566797</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>70.51113862850585</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>141.4194510339604</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>74.70459810936936</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>193.7228370923113</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>110.0923443600221</v>
+        <v>252.9723734661569</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>67.24416875037065</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>84.5122479687506</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>23.86075901978369</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>203.1002079700027</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>36.41670903610054</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>104.4484877422295</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>229.7965692041376</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>70.82764119510665</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>131.05739124507</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>168.1158122680967</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>104.5702261485542</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>87.40006684547599</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>24.97436107625053</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>241.248018996355</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>38.33803137561117</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>7.601081015447462</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>85.95014028179213</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>37.59617708813215</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>217.6848741855949</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>79.03187764303784</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680976</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>159.6485136801247</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>164.2540732785633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>148.5889589693335</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5388824951709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>149.9850403984977</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>114.4746605491561</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.0771049282163</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="C2" t="n">
-        <v>11.74768968709667</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709667</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709667</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709667</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709667</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779182994</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458391</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>271.121766306625</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588554</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735297</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548336</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548336</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548336</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548336</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548336</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548336</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="V2" t="n">
-        <v>587.3844843548336</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="W2" t="n">
-        <v>456.7359354104556</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="X2" t="n">
-        <v>456.7359354104556</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="Y2" t="n">
-        <v>308.4065201693359</v>
+        <v>583.2614020227604</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616805</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415664</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>248.1447726172885</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>393.5224324951099</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>511.7941057756084</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>587.3844843548336</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548336</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548336</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>439.055069113714</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>290.7256538725944</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U3" t="n">
-        <v>290.7256538725944</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="V3" t="n">
-        <v>290.7256538725944</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W3" t="n">
-        <v>142.3962386314748</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X3" t="n">
-        <v>142.3962386314748</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>142.3962386314748</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>587.3844843548336</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>587.3844843548336</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>587.3844843548336</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>587.3844843548336</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>440.4945368569232</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>292.1651216158036</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>143.835706374684</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>14.86520286021687</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709667</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>95.91234996041993</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>241.2900098382412</v>
+        <v>216.0634826394163</v>
       </c>
       <c r="M4" t="n">
-        <v>320.6484968627344</v>
+        <v>401.7138139340732</v>
       </c>
       <c r="N4" t="n">
-        <v>334.1347576642887</v>
+        <v>587.3641452287301</v>
       </c>
       <c r="O4" t="n">
-        <v>479.51241754211</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="P4" t="n">
-        <v>587.3844843548336</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>587.3844843548336</v>
+        <v>746.725497984628</v>
       </c>
       <c r="R4" t="n">
-        <v>587.3844843548336</v>
+        <v>746.725497984628</v>
       </c>
       <c r="S4" t="n">
-        <v>587.3844843548336</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="T4" t="n">
-        <v>587.3844843548336</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="U4" t="n">
-        <v>587.3844843548336</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="V4" t="n">
-        <v>587.3844843548336</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W4" t="n">
-        <v>587.3844843548336</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>587.3844843548336</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>587.3844843548336</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.7256538725946</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="C5" t="n">
-        <v>142.3962386314749</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="D5" t="n">
-        <v>142.3962386314749</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="E5" t="n">
-        <v>142.3962386314749</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="F5" t="n">
-        <v>142.3962386314749</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="G5" t="n">
-        <v>142.3962386314749</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="H5" t="n">
-        <v>142.3962386314749</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709668</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183017</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458396</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066257</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>407.650846758856</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735303</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548342</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548342</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3844843548342</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U5" t="n">
-        <v>587.3844843548342</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="V5" t="n">
-        <v>587.3844843548342</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="W5" t="n">
-        <v>587.3844843548342</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="X5" t="n">
-        <v>587.3844843548342</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="Y5" t="n">
-        <v>439.0550691137144</v>
+        <v>21.46338433294335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>555.2921425849985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>406.9627273438787</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>258.633312102759</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>258.633312102759</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>112.0987541296439</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616808</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>111.955424848822</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>247.5338027825022</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9114626603237</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408224</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200476</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>555.2921425849985</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>555.2921425849985</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T6" t="n">
-        <v>555.2921425849985</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U6" t="n">
-        <v>555.2921425849985</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V6" t="n">
-        <v>555.2921425849985</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W6" t="n">
-        <v>555.2921425849985</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X6" t="n">
-        <v>555.2921425849985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y6" t="n">
-        <v>555.2921425849985</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>157.1253495649181</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>296.6291645991913</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N7" t="n">
-        <v>442.0068244770127</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O7" t="n">
-        <v>587.3844843548342</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P7" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q7" t="n">
-        <v>578.4567702993251</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R7" t="n">
-        <v>456.735935410456</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S7" t="n">
-        <v>308.4065201693362</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T7" t="n">
-        <v>160.0771049282164</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="U7" t="n">
-        <v>11.74768968709668</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="V7" t="n">
-        <v>11.74768968709668</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709668</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709668</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.841617006275</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="C8" t="n">
-        <v>393.841617006275</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="D8" t="n">
-        <v>393.841617006275</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897903</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897903</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="G8" t="n">
         <v>15.00204697330559</v>
@@ -4819,7 +4819,7 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
         <v>734.4611726020263</v>
@@ -4831,25 +4831,25 @@
         <v>738.6222485201467</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201467</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="W8" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="X8" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="Y8" t="n">
-        <v>549.202463503662</v>
+        <v>388.8228542207801</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>348.6925312598881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
         <v>15.00204697330559</v>
@@ -4886,7 +4886,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
         <v>183.5548280772649</v>
@@ -4895,40 +4895,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
         <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>727.5321012928576</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>727.5321012928576</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T9" t="n">
-        <v>727.5321012928576</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="U9" t="n">
-        <v>727.5321012928576</v>
+        <v>409.399488203391</v>
       </c>
       <c r="V9" t="n">
-        <v>727.5321012928576</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="W9" t="n">
-        <v>727.5321012928576</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="X9" t="n">
-        <v>538.1123162763729</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>348.6925312598881</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>636.2117764014496</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>636.2117764014496</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>636.2117764014496</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>636.2117764014496</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>489.3218289035392</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>43.1759045242809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>216.063482639416</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>401.7138139340726</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N10" t="n">
-        <v>587.3641452287293</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O10" t="n">
-        <v>750.1023486652795</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P10" t="n">
         <v>750.1023486652795</v>
@@ -4989,25 +4989,25 @@
         <v>746.7254979846272</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846272</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="T10" t="n">
-        <v>746.7254979846272</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="U10" t="n">
-        <v>746.7254979846272</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="V10" t="n">
-        <v>746.7254979846272</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="W10" t="n">
-        <v>746.7254979846272</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X10" t="n">
-        <v>636.2117764014496</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y10" t="n">
-        <v>636.2117764014496</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796252</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392135</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D11" t="n">
-        <v>194.542240332463</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
@@ -5117,49 +5117,49 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>441.1652223009119</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>441.1652223009119</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>291.0485828885761</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>291.0485828885761</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>843.6062662746817</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>622.8136871311516</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1091.323932370578</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C14" t="n">
-        <v>722.3614154301667</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D14" t="n">
-        <v>364.0957168234162</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5278,13 +5278,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5293,7 +5293,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3178.890882011441</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2925.360405285277</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2594.297517941706</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2241.528862671592</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>1868.063104410512</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1477.9237724347</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>102.5893906298278</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796247</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>552.807938939213</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>552.807938939213</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>552.807938939213</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>552.807938939213</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>137.7354887842095</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267227</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923656</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2535.034709923656</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919558</v>
+        <v>2535.034709923656</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943746</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,13 +5609,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>628.7269654071711</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>459.7907824792642</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>309.6741430669284</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>309.6741430669284</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>309.6741430669284</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
-        <v>141.9713064416474</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="V19" t="n">
-        <v>1259.157560278958</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W19" t="n">
-        <v>1259.157560278958</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X19" t="n">
-        <v>1031.168009380941</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y19" t="n">
-        <v>810.3754302374108</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796247</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C20" t="n">
-        <v>810.5660676371781</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D20" t="n">
-        <v>452.3003690304276</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218339</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218339</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5767,37 +5767,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919558</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943746</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158126</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>431.4421061205817</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>431.4421061205817</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>281.3254667082459</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>281.3254667082459</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>134.4355192103356</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5916,46 +5916,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1620.162025618876</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621292</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W22" t="n">
-        <v>880.2242361621292</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X22" t="n">
-        <v>652.2346852641118</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.4421061205817</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1501.213961756483</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>1132.251444816071</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>773.9857462093207</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>388.1974936110765</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>388.1974936110765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>388.1974936110765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>90.6138932198437</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912088</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2277.953133796416</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2277.953133796416</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y23" t="n">
-        <v>1887.813801820605</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1464.823389952861</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C25" t="n">
-        <v>1464.823389952861</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.32286476305</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>2533.219997888694</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>2278.535509682807</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1989.118339645846</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1761.128788747829</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1540.336209604299</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038043</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097632</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.404020490881</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E26" t="n">
-        <v>709.615767892637</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030294</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>298.6298631030294</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102165</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064758</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080137</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.741664998631</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.4780323548191</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C28" t="n">
-        <v>364.5418494269122</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D28" t="n">
-        <v>214.4252100145765</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1708.010285469454</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.325797263567</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.908627226606</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>935.919076328589</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.1264971850588</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>785.9944709118752</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>617.0582879839683</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>466.9416485716325</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>319.0285549892394</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>172.1386074913291</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.044275313594</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>967.6429357421149</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>909.4479615424621</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
-        <v>2782.326111562134</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6891,19 +6891,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>1927.294548088493</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.044275313594</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1959.379186075721</v>
+        <v>2249.271807195287</v>
       </c>
       <c r="C35" t="n">
-        <v>1590.416669135309</v>
+        <v>1880.309290254875</v>
       </c>
       <c r="D35" t="n">
-        <v>1232.150970528558</v>
+        <v>1522.043591648125</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>1136.25533904988</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>725.2694342602729</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>310.1969841052693</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V35" t="n">
-        <v>2741.012457539436</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W35" t="n">
-        <v>2388.243802269321</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X35" t="n">
-        <v>2349.518518051532</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y35" t="n">
-        <v>1959.379186075721</v>
+        <v>2635.871647259409</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>994.2880032601528</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C37" t="n">
-        <v>825.3518203322459</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2351809199101</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1914.135768168901</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1624.71859813194</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>1396.729047233923</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>1175.936468090393</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="C38" t="n">
         <v>1221.551972426786</v>
@@ -7162,16 +7162,16 @@
         <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3093.488074938325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.71941966821</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2116.655189826065</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C40" t="n">
-        <v>1947.719006898159</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>1797.602367485823</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>1649.68927390343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>1502.799326405519</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734814</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>3036.502954734814</v>
+        <v>1196.541354485082</v>
       </c>
       <c r="W40" t="n">
-        <v>2747.085784697853</v>
+        <v>907.124184448121</v>
       </c>
       <c r="X40" t="n">
-        <v>2519.096233799835</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y40" t="n">
-        <v>2298.303654656305</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>235.4482993600904</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V43" t="n">
-        <v>1416.425065783662</v>
+        <v>973.6475994385985</v>
       </c>
       <c r="W43" t="n">
-        <v>1416.425065783662</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.51186045178</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.71928130825</v>
+        <v>235.4482993600904</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1464.823389952861</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="C46" t="n">
-        <v>1464.823389952861</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>1464.823389952861</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>1464.823389952861</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>3044.089480193525</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T46" t="n">
-        <v>2928.458509941852</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U46" t="n">
-        <v>2639.355643067495</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V46" t="n">
-        <v>2384.671154861609</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W46" t="n">
-        <v>2095.253984824648</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X46" t="n">
-        <v>1867.264433926631</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y46" t="n">
-        <v>1646.471854783101</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328851</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827338</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>144.4438298277633</v>
+        <v>98.2936870616128</v>
       </c>
       <c r="M4" t="n">
-        <v>74.33601363113424</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>154.7818223541829</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328823</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827335</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776032</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
-        <v>144.4438298277634</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>135.0888702066696</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N7" t="n">
-        <v>133.2236354305728</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O7" t="n">
-        <v>154.7818223541829</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>26.0448796648253</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8613,7 +8613,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>42.56275186471065</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
@@ -8628,7 +8628,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>218.4267706822991</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327426</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20.555557115824</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>219.8989052624788</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>363.3343766924275</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.3918175673452</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.19112019493301</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>51.47395949496052</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.7714183521373</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>4.378130057857447</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>48.87899782081618</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>60.69123123399618</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W3" t="n">
-        <v>104.8488620722112</v>
+        <v>64.16939599459954</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22716,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>20.22144097553243</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>7.171032202866229</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>24.98723937407552</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.838436914954073</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>44.95080079324737</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>98.73949432713022</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750794</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027094</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.887720574772</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>218.426770682299</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>1.769632077808154</v>
+        <v>119.0745931339333</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55555711582397</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.391817567345</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>25.8623778996072</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5989444759302103</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>36.89451501792048</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>51.47395949496052</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>86.52244598482517</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>28.0735774154645</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.26956540808069</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>61.07783192084744</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>77.15395808245995</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U7" t="n">
-        <v>139.4225400517341</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>124.6935433343423</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271729</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577492</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.9266036310675</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>230.5408212213782</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U8" t="n">
         <v>251.1692605650303</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,13 +23102,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.566680918444781</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715761</v>
+        <v>190.3706927183327</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T10" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>124.6935433343423</v>
       </c>
       <c r="X10" t="n">
-        <v>116.3010710216914</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577492</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>85.36973515430282</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>296.757477183911</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>89.15575449013073</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>255.1805474109837</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>58.67017993786666</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>130.3093068033602</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>224.0966257588146</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>244.8184876220932</v>
       </c>
     </row>
     <row r="18">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.05041680495142</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>25.8261121838579</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>255.1805474109854</v>
+        <v>112.3005183048507</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>98.78163950865758</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>201.6995902368623</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>17.71617075314226</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>166.6308927084663</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>112.1987639821118</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>278.285353921251</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>64.81119518318289</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>77.78783182310571</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>279.8643344083835</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>61.45558211047407</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>319.4759788962355</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>200.7352943127866</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>53.35974539096543</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>331.3930693028578</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>137.8199670074838</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,13 +25365,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>296.7837013816884</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>128.4296311708961</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,13 +25602,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>34.45276913823312</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25687,10 +25687,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>248.7203808270971</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493154</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>92.48912964370331</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>61.45558211047381</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>216.683932801674</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>222.7020862222421</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>17.26178070013015</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>105.0742887270131</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>447108.5355359078</v>
+        <v>481019.7826985249</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>447108.535535908</v>
+        <v>481019.7826985247</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896961.5047296034</v>
+        <v>896961.5047296033</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896961.5047296034</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>896961.5047296033</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296037</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896961.5047296034</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150913.5375162087</v>
+        <v>162397.4547967405</v>
       </c>
       <c r="C2" t="n">
-        <v>150913.5375162088</v>
+        <v>162397.4547967403</v>
       </c>
       <c r="D2" t="n">
         <v>162397.4547967403</v>
       </c>
       <c r="E2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="F2" t="n">
         <v>306897.3890738288</v>
       </c>
       <c r="G2" t="n">
+        <v>306897.3890738287</v>
+      </c>
+      <c r="H2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="I2" t="n">
+        <v>306897.3890738289</v>
+      </c>
+      <c r="J2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="K2" t="n">
         <v>306897.3890738286</v>
-      </c>
-      <c r="H2" t="n">
-        <v>306897.3890738287</v>
-      </c>
-      <c r="I2" t="n">
-        <v>306897.3890738286</v>
-      </c>
-      <c r="J2" t="n">
-        <v>306897.3890738286</v>
-      </c>
-      <c r="K2" t="n">
-        <v>306897.3890738289</v>
       </c>
       <c r="L2" t="n">
         <v>306897.3890738288</v>
       </c>
       <c r="M2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="N2" t="n">
+        <v>306897.3890738286</v>
+      </c>
+      <c r="O2" t="n">
+        <v>306897.3890738289</v>
+      </c>
+      <c r="P2" t="n">
         <v>306897.3890738287</v>
-      </c>
-      <c r="N2" t="n">
-        <v>306897.3890738288</v>
-      </c>
-      <c r="O2" t="n">
-        <v>306897.3890738288</v>
-      </c>
-      <c r="P2" t="n">
-        <v>306897.3890738288</v>
       </c>
     </row>
     <row r="3">
@@ -26365,37 +26365,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.43497513</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074464</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613408</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.6067490487</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678774</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11263.43165881185</v>
+        <v>12034.19304942663</v>
       </c>
       <c r="C4" t="n">
-        <v>11263.43165881186</v>
+        <v>12034.19304942662</v>
       </c>
       <c r="D4" t="n">
         <v>12034.19304942662</v>
@@ -26432,10 +26432,10 @@
         <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
+        <v>10990.29103211612</v>
+      </c>
+      <c r="H4" t="n">
         <v>10990.29103211609</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10990.29103211611</v>
       </c>
       <c r="I4" t="n">
         <v>10990.29103211609</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.11977902088</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902089</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.34056139326</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="F5" t="n">
-        <v>74306.34056139331</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26499,16 +26499,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139334</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-456724.4488967541</v>
+        <v>-509483.4046097113</v>
       </c>
       <c r="C6" t="n">
-        <v>85930.98607837601</v>
+        <v>81873.4979111344</v>
       </c>
       <c r="D6" t="n">
-        <v>49573.65749495545</v>
+        <v>81873.49791113417</v>
       </c>
       <c r="E6" t="n">
-        <v>-405533.8861533483</v>
+        <v>-409010.0754514093</v>
       </c>
       <c r="F6" t="n">
-        <v>221600.7574803192</v>
+        <v>218124.5681822583</v>
       </c>
       <c r="G6" t="n">
-        <v>221600.7574803195</v>
+        <v>218124.5681822588</v>
       </c>
       <c r="H6" t="n">
-        <v>221600.7574803195</v>
+        <v>218124.5681822583</v>
       </c>
       <c r="I6" t="n">
-        <v>221600.7574803192</v>
+        <v>218124.5681822581</v>
       </c>
       <c r="J6" t="n">
-        <v>183179.3509741852</v>
+        <v>169059.6234537136</v>
       </c>
       <c r="K6" t="n">
-        <v>221600.7574803195</v>
+        <v>218124.5681822582</v>
       </c>
       <c r="L6" t="n">
-        <v>211305.1507312707</v>
+        <v>218124.5681822583</v>
       </c>
       <c r="M6" t="n">
-        <v>61144.31561244196</v>
+        <v>57668.12631438093</v>
       </c>
       <c r="N6" t="n">
-        <v>221600.7574803194</v>
+        <v>218124.5681822581</v>
       </c>
       <c r="O6" t="n">
-        <v>221600.7574803194</v>
+        <v>218124.5681822581</v>
       </c>
       <c r="P6" t="n">
-        <v>221600.7574803194</v>
+        <v>218124.5681822585</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572206</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572207</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
@@ -26749,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887084</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572206</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568386</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887084</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761132</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761121</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887084</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761132</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903398</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877943</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766332</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593574</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154183</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871682</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270565</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695508</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961051</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656775</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611123</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339629</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168361</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502075</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645455</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383933</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358322</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>240.3006435944649</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720417</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914127</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711233</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050583</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727196</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297034</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055012</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179387</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864952</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793584</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120826</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>107.284300182775</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199992</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233688</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863683</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674031</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910839</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741625</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.94551025711301</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825126</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903398</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877943</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766334</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154183</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871683</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270566</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695509</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961052</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656775</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611123</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339631</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645456</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383933</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>199.7559997623529</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206852</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720418</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050584</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297034</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055014</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179388</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864953</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793584</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120828</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674033</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910841</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825127</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563588</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I41" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043773</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>89.096176317181</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997838</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729599</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744184</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040792</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.01831452431452</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>100.600008055958</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>98.16660967244658</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887084</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469683</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679309</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>85.01480835689219</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>146.8461210887084</v>
+        <v>110.4529028080736</v>
       </c>
       <c r="M4" t="n">
-        <v>80.16008790352841</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813564</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
-        <v>146.8461210887084</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>108.9616836492158</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043779</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718106</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>137.90816207296</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744185</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040798</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>61.20161998247873</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986669</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887085</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469683</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679312</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.617141247259184</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>146.8461210887085</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>140.9129444790638</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N7" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O7" t="n">
-        <v>146.8461210887085</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764971</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>28.45844197068213</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>174.6339172880152</v>
@@ -35348,7 +35348,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222663</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408073.1573279949</v>
+        <v>454207.5229489243</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12542588.90892573</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043048</v>
+        <v>7718829.196416963</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9171228.953297561</v>
+        <v>9120632.601986563</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>108.7865063391106</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.55555711582394</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.396723986041543</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>165.1725371760947</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>161.8294550022489</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663201</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>137.3982828274878</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.396723986041382</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.8745106541563</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>27.26886721598258</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W7" t="n">
-        <v>161.8294550022487</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="X7" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28.33592091243833</v>
+      </c>
+      <c r="G8" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>182.5570120086798</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.527456720693497</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15.4022924851448</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>52.54128437557263</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>161.8294550022487</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>297.3641065091778</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>137.0709134223702</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>56.26529353280052</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>51.48447105730193</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>136.3896895755412</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>123.6357395020775</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.71650145566797</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>170.1057362093156</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>141.4194510339604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>85.65289841788677</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>193.7228370923113</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>252.9723734661569</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>256.7877664710645</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>104.3550540205967</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>84.5122479687506</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>182.6100760089467</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>203.1002079700027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>36.41670903610054</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334145</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>104.4484877422295</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>203.1002079700021</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>70.82764119510665</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>160.040379087079</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>368.0554580906424</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>131.05739124507</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.20584125154446</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>104.5702261485542</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>87.40006684547599</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>18.78845495294979</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>22.79232392276363</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>24.97436107625053</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>241.248018996355</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>29.7649898211764</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>7.601081015447462</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>108.4306842524458</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>85.95014028179213</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>33.38304376058881</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>119.1061955452783</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>217.6848741855949</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>106.9151871668376</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>79.03187764303784</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>1.487860919362231</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>159.6485136801247</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>148.5889589693335</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>289.3265275022433</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>149.9850403984977</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>35.04085089109481</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227604</v>
+        <v>269.9624648667121</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227604</v>
+        <v>269.9624648667121</v>
       </c>
       <c r="D2" t="n">
-        <v>583.2614020227604</v>
+        <v>269.9624648667121</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062754</v>
+        <v>269.9624648667121</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>271.1217663066257</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>407.6508467588561</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652803</v>
+        <v>566.6212953489518</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823983</v>
+        <v>566.6212953489518</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823983</v>
+        <v>566.6212953489518</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823983</v>
+        <v>566.6212953489518</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823983</v>
+        <v>566.6212953489518</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823983</v>
+        <v>566.6212953489518</v>
       </c>
       <c r="X2" t="n">
-        <v>583.2614020227604</v>
+        <v>418.291880107832</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227604</v>
+        <v>269.9624648667121</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>248.144772617289</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>393.5224324951106</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>511.7941057756093</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487954</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062754</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897905</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="W3" t="n">
-        <v>15.0020469733056</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>95.91234996042</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394163</v>
+        <v>241.2900098382415</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340732</v>
+        <v>247.0558433679118</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287301</v>
+        <v>392.4335032457334</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652803</v>
+        <v>479.5124175421108</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652803</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.725497984628</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R4" t="n">
-        <v>746.725497984628</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S4" t="n">
-        <v>583.2614020227604</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T4" t="n">
-        <v>583.2614020227604</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U4" t="n">
-        <v>393.8416170062754</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="V4" t="n">
-        <v>204.4218319897905</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.46338433294335</v>
+        <v>152.128738406056</v>
       </c>
       <c r="C5" t="n">
-        <v>21.46338433294335</v>
+        <v>152.128738406056</v>
       </c>
       <c r="D5" t="n">
-        <v>21.46338433294335</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E5" t="n">
-        <v>21.46338433294335</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F5" t="n">
-        <v>21.46338433294335</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G5" t="n">
-        <v>21.46338433294335</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>21.46338433294335</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678478</v>
+        <v>13.34259413586628</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>64.08111238184313</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644753</v>
+        <v>306.6973793432475</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123826</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652795</v>
+        <v>651.0948475466911</v>
       </c>
       <c r="S5" t="n">
-        <v>589.7227393823975</v>
+        <v>489.0629337562144</v>
       </c>
       <c r="T5" t="n">
-        <v>589.7227393823975</v>
+        <v>320.5958360811352</v>
       </c>
       <c r="U5" t="n">
-        <v>400.3029543659128</v>
+        <v>152.128738406056</v>
       </c>
       <c r="V5" t="n">
-        <v>210.8831693494281</v>
+        <v>152.128738406056</v>
       </c>
       <c r="W5" t="n">
-        <v>21.46338433294335</v>
+        <v>152.128738406056</v>
       </c>
       <c r="X5" t="n">
-        <v>21.46338433294335</v>
+        <v>152.128738406056</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.46338433294335</v>
+        <v>152.128738406056</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.00204697330559</v>
+        <v>346.6589174336111</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330559</v>
+        <v>346.6589174336111</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330559</v>
+        <v>346.6589174336111</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330559</v>
+        <v>187.4214624281556</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330559</v>
+        <v>40.88690445504059</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>33.10271968746866</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>141.2673513924122</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>286.8472429682664</v>
       </c>
       <c r="N6" t="n">
-        <v>512.50005875466</v>
+        <v>450.6888460033937</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476347</v>
+        <v>578.3521085265271</v>
       </c>
       <c r="P6" t="n">
-        <v>739.598998701706</v>
+        <v>661.4800654501</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652795</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652795</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652795</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652795</v>
+        <v>346.6589174336111</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487947</v>
+        <v>346.6589174336111</v>
       </c>
       <c r="V6" t="n">
-        <v>371.26277863231</v>
+        <v>346.6589174336111</v>
       </c>
       <c r="W6" t="n">
-        <v>204.4218319897903</v>
+        <v>346.6589174336111</v>
       </c>
       <c r="X6" t="n">
-        <v>15.00204697330559</v>
+        <v>346.6589174336111</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.00204697330559</v>
+        <v>346.6589174336111</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>101.3520233773647</v>
       </c>
       <c r="L7" t="n">
-        <v>187.8896250884407</v>
+        <v>178.6680950792486</v>
       </c>
       <c r="M7" t="n">
-        <v>373.5399563830973</v>
+        <v>343.7826975105937</v>
       </c>
       <c r="N7" t="n">
-        <v>559.190287677754</v>
+        <v>508.8972999419389</v>
       </c>
       <c r="O7" t="n">
-        <v>721.9284911143042</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652795</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846272</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R7" t="n">
-        <v>746.7254979846272</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S7" t="n">
-        <v>746.7254979846272</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="T7" t="n">
-        <v>557.3057129681424</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="U7" t="n">
-        <v>557.3057129681424</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="V7" t="n">
-        <v>557.3057129681424</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="W7" t="n">
-        <v>393.841617006275</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="X7" t="n">
-        <v>204.4218319897903</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.4030692042953</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="C8" t="n">
-        <v>199.4030692042953</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="D8" t="n">
-        <v>199.4030692042953</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="E8" t="n">
-        <v>199.4030692042953</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="F8" t="n">
-        <v>199.4030692042953</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
         <v>15.00204697330559</v>
@@ -4819,7 +4819,7 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
         <v>734.4611726020263</v>
@@ -4831,25 +4831,25 @@
         <v>738.6222485201467</v>
       </c>
       <c r="S8" t="n">
-        <v>578.2426392372648</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T8" t="n">
-        <v>388.8228542207801</v>
+        <v>549.202463503662</v>
       </c>
       <c r="U8" t="n">
-        <v>388.8228542207801</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="V8" t="n">
-        <v>388.8228542207801</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="W8" t="n">
-        <v>388.8228542207801</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="X8" t="n">
-        <v>388.8228542207801</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="Y8" t="n">
-        <v>388.8228542207801</v>
+        <v>359.7826784871772</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E9" t="n">
         <v>15.00204697330559</v>
@@ -4886,7 +4886,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
         <v>183.5548280772649</v>
@@ -4895,13 +4895,13 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017063</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
         <v>750.1023486652795</v>
@@ -4910,25 +4910,25 @@
         <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U9" t="n">
-        <v>409.399488203391</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V9" t="n">
-        <v>219.9797031869063</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W9" t="n">
-        <v>30.55991817042155</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330559</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158252</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>507.6105592290244</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H10" t="n">
         <v>15.00204697330559</v>
@@ -4983,31 +4983,31 @@
         <v>750.1023486652795</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S10" t="n">
-        <v>557.3057129681424</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T10" t="n">
-        <v>557.3057129681424</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U10" t="n">
-        <v>367.8859279516577</v>
+        <v>697.0303442455091</v>
       </c>
       <c r="V10" t="n">
-        <v>367.8859279516577</v>
+        <v>697.0303442455091</v>
       </c>
       <c r="W10" t="n">
-        <v>204.4218319897903</v>
+        <v>507.6105592290244</v>
       </c>
       <c r="X10" t="n">
-        <v>204.4218319897903</v>
+        <v>507.6105592290244</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>507.6105592290244</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1261.532988317206</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C11" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5050,13 +5050,13 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176917</v>
+        <v>2823.329208306698</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906803</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645723</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y11" t="n">
-        <v>1561.900772669911</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.1652223009119</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C13" t="n">
-        <v>441.1652223009119</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="D13" t="n">
-        <v>291.0485828885761</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="E13" t="n">
-        <v>291.0485828885761</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V13" t="n">
-        <v>1361.01298720966</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W13" t="n">
-        <v>1071.595817172699</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X13" t="n">
-        <v>843.6062662746817</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y13" t="n">
-        <v>622.8136871311516</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796265</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392149</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324644</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218343</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
@@ -5290,16 +5290,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5363,7 +5363,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>249.4793381277382</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="C16" t="n">
-        <v>249.4793381277382</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D16" t="n">
-        <v>249.4793381277382</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E16" t="n">
-        <v>249.4793381277382</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>102.5893906298278</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>1169.327103036486</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W16" t="n">
-        <v>879.9099329995254</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X16" t="n">
-        <v>651.920382101508</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y16" t="n">
-        <v>431.1278029579779</v>
+        <v>520.9582602004501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>2106.031998942028</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218338</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993391</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267227</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923656</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W17" t="n">
-        <v>2535.034709923656</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.034709923656</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>2492.63183900615</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,13 +5609,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>766.8860590627162</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>597.9498761348093</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>447.8332367224735</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>299.9201431400804</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>153.0301956421701</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915318</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1539.929030488741</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1539.929030488741</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>1539.929030488741</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W19" t="n">
-        <v>1250.51186045178</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.51186045178</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.71928130825</v>
+        <v>948.5345238929559</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1506.36381994936</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C20" t="n">
-        <v>1250.836169983545</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D20" t="n">
-        <v>892.5704713767946</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
         <v>481.5845665871869</v>
@@ -5752,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5764,16 +5764,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2656.568750250373</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X20" t="n">
-        <v>2283.102991989294</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y20" t="n">
-        <v>1892.963660013482</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031474</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158126</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>339.6240985328146</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>339.6240985328146</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>339.6240985328146</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>339.6240985328146</v>
       </c>
       <c r="F22" t="n">
         <v>234.2149530574645</v>
@@ -5910,52 +5910,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1620.162025618876</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1365.477537412989</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1076.060367376028</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X22" t="n">
-        <v>848.0708164780106</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y22" t="n">
-        <v>848.0708164780106</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>1774.969111598457</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1406.006594658045</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1047.740896051295</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>661.9526434530503</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>250.9667386634428</v>
       </c>
       <c r="G23" t="n">
         <v>66.51211643218342</v>
@@ -5989,7 +5989,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6028,13 +6028,13 @@
         <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X23" t="n">
-        <v>1977.114329431319</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>2161.568951662578</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.9995076393842</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>270.9995076393842</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696239</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.6479724696239</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1202.866772971799</v>
+        <v>1795.666214589422</v>
       </c>
       <c r="C26" t="n">
-        <v>1202.866772971799</v>
+        <v>1426.70369764901</v>
       </c>
       <c r="D26" t="n">
-        <v>1202.866772971799</v>
+        <v>1068.43799904226</v>
       </c>
       <c r="E26" t="n">
-        <v>817.078520373555</v>
+        <v>682.6497464440154</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>271.6638416544078</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943748</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>452.6479724696239</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C28" t="n">
-        <v>452.6479724696239</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D28" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.6479724696239</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1311.909787855438</v>
+        <v>1190.127582679363</v>
       </c>
       <c r="C29" t="n">
-        <v>942.9472709150266</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D29" t="n">
-        <v>584.6815723082761</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E29" t="n">
-        <v>198.8933197100319</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F29" t="n">
-        <v>198.8933197100319</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.50962791956</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>785.9944709118752</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C31" t="n">
-        <v>617.0582879839683</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D31" t="n">
-        <v>466.9416485716325</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
-        <v>319.0285549892394</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>172.1386074913291</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6657,16 +6657,16 @@
         <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1416.425065783662</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>1416.425065783662</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>1188.435514885645</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y31" t="n">
-        <v>967.6429357421149</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1295.236214140706</v>
+        <v>1571.829289912211</v>
       </c>
       <c r="C32" t="n">
-        <v>1295.236214140706</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D32" t="n">
-        <v>1295.236214140706</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E32" t="n">
-        <v>909.4479615424621</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
         <v>406.0926155839475</v>
@@ -6697,55 +6697,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2722.034220213224</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.97538618064</v>
+        <v>2348.568461952144</v>
       </c>
       <c r="Y32" t="n">
-        <v>1681.836054204828</v>
+        <v>1958.429129976333</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>555.4774356872693</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>386.5412527593625</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>236.4246133470267</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>236.4246133470267</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>89.53466584911638</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>89.53466584911638</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U34" t="n">
-        <v>1638.191681214136</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V34" t="n">
-        <v>1383.507193008249</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W34" t="n">
-        <v>1094.090022971289</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X34" t="n">
-        <v>1068.863395621541</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y34" t="n">
-        <v>848.0708164780106</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2249.271807195287</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C35" t="n">
-        <v>1880.309290254875</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D35" t="n">
-        <v>1522.043591648125</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>1136.25533904988</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>725.2694342602729</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>310.1969841052693</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X35" t="n">
-        <v>2635.871647259409</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y35" t="n">
-        <v>2635.871647259409</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.8928126690276</v>
+        <v>785.9944709118752</v>
       </c>
       <c r="C37" t="n">
-        <v>241.8928126690276</v>
+        <v>617.0582879839683</v>
       </c>
       <c r="D37" t="n">
-        <v>241.8928126690276</v>
+        <v>617.0582879839683</v>
       </c>
       <c r="E37" t="n">
-        <v>241.8928126690276</v>
+        <v>469.1451944015752</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>322.2552469036648</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7131,16 +7131,16 @@
         <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408147</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427974</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992673</v>
+        <v>967.6429357421149</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.551972426786</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>1354.075868958387</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>968.2876163601427</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>557.3017115705352</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>142.2292614155317</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>679.1346335501037</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>501.4141889849489</v>
       </c>
       <c r="E40" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7368,16 +7368,16 @@
         <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1196.541354485082</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>907.124184448121</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>679.1346335501037</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y40" t="n">
-        <v>679.1346335501037</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1632.511388127729</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.548871187317</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D41" t="n">
-        <v>905.2831725805665</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E41" t="n">
-        <v>519.4949199823222</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927146</v>
+        <v>174.5072549845447</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927146</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927146</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136268</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136268</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>3135.484973698856</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2782.716318428742</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2409.250560167662</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>2019.11122819185</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.4482993600904</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218346</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218346</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218346</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218346</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242374</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368017</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>973.6475994385985</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>684.2304294016378</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>456.2408785036205</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.4482993600904</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1698.509627919559</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="C44" t="n">
-        <v>1548.419770374778</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D44" t="n">
-        <v>1190.154071768027</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7648,7 +7648,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7657,10 +7657,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.509627919559</v>
+        <v>1612.238357856303</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>662.9318377313859</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C46" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7806,16 +7806,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.779602640134</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W46" t="n">
-        <v>1293.362432603173</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X46" t="n">
-        <v>1065.372881705156</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y46" t="n">
-        <v>844.5803025616257</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>98.2936870616128</v>
+        <v>144.4438298277635</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>133.2236354305729</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>95.89420055474453</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>70.72507351708077</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457083</v>
+        <v>155.7185244657183</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711116</v>
+        <v>148.0447044772794</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>46.56605103777598</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>298.0895394026008</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>266.398015971523</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>363.3343766924275</v>
+        <v>222.8849795897604</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>51.47395949496051</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>31.77141835213727</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681157</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>60.69123123399618</v>
+        <v>96.52685491898978</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831052</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459954</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>58.92686411476885</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>28.07357741546448</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>8.838436914954045</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>44.95080079324737</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713022</v>
+        <v>156.9265976855082</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750794</v>
+        <v>105.2915222351194</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027094</v>
+        <v>139.6768772478824</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>78.86353430032852</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>217.2847587931952</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>119.0745931339333</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>46.97568950224155</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871046</v>
+        <v>84.39257659920884</v>
       </c>
       <c r="V5" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>108.9333300594779</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>50.10118934773676</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714238</v>
+        <v>29.29588533250677</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>28.78198192262309</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>86.52244598482517</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553084</v>
+        <v>25.71029132565417</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.039384816041505</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378023</v>
+        <v>57.07482818812736</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>85.35521662549959</v>
       </c>
       <c r="W7" t="n">
-        <v>124.6935433343423</v>
+        <v>139.6210369007034</v>
       </c>
       <c r="X7" t="n">
-        <v>38.18406822271729</v>
+        <v>58.92722869070874</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>378.5401248292731</v>
       </c>
       <c r="G8" t="n">
-        <v>230.5408212213782</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>25.91829388988691</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23102,13 +23102,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.1810422676222</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23150,7 +23150,7 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>195.4095977920013</v>
@@ -23159,16 +23159,16 @@
         <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>190.3706927183327</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,10 +23193,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>125.7072197708667</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>19.25466862917636</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>98.73949432713042</v>
+        <v>233.7237971178777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>124.6935433343423</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.36973515430282</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>190.6813450477648</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>89.15575449013073</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>114.5413372017263</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>233.3414111029279</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>43.61108159655031</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>130.3093068033602</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>195.1671555616919</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>244.8184876220932</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>80.37290984114145</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>25.8261121838579</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>112.3005183048507</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>112.9433342074045</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>41.06599400233459</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>201.6995902368623</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>228.3116496445067</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>166.6308927084663</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>112.1987639821118</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.5414662356957</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>278.285353921251</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>207.8215176834513</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>77.78783182310571</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>65.66927630195815</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>14.67838357283813</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>279.8643344083835</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.0409798470834</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>61.45558211047407</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>319.4759788962355</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>330.4525137644632</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>121.9626909915572</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>200.7352943127866</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>53.35974539096543</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>339.9661108572926</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>137.8199670074838</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.59512400658247</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>296.7837013816884</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>261.2247206267317</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>27.32776710129086</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>34.45276913823312</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>304.0065384866158</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>248.7203808270971</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>165.7589601792656</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>92.48912964370331</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>216.683932801674</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>96.91141115381032</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>17.26178070013015</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>190.6688044979423</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481019.7826985249</v>
+        <v>447108.535535908</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481019.7826985247</v>
+        <v>463667.2743842094</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481019.7826985247</v>
+        <v>481019.7826985246</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896961.5047296033</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896961.5047296038</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896961.5047296034</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162397.4547967405</v>
+        <v>150913.5375162088</v>
       </c>
       <c r="C2" t="n">
-        <v>162397.4547967403</v>
+        <v>156563.0300299674</v>
       </c>
       <c r="D2" t="n">
         <v>162397.4547967403</v>
       </c>
       <c r="E2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="F2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="G2" t="n">
         <v>306897.3890738287</v>
       </c>
       <c r="H2" t="n">
+        <v>306897.3890738287</v>
+      </c>
+      <c r="I2" t="n">
         <v>306897.3890738288</v>
       </c>
-      <c r="I2" t="n">
-        <v>306897.3890738289</v>
-      </c>
       <c r="J2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="K2" t="n">
         <v>306897.3890738286</v>
       </c>
       <c r="L2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="M2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="N2" t="n">
         <v>306897.3890738286</v>
       </c>
       <c r="O2" t="n">
-        <v>306897.3890738289</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="P2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738288</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340651</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679072</v>
       </c>
       <c r="E3" t="n">
         <v>627134.6436336676</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136623</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004455</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678774</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12034.19304942663</v>
+        <v>11263.43165881186</v>
       </c>
       <c r="C4" t="n">
-        <v>12034.19304942662</v>
+        <v>11518.70215387087</v>
       </c>
       <c r="D4" t="n">
         <v>12034.19304942662</v>
@@ -26432,7 +26432,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
-        <v>10990.29103211612</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="H4" t="n">
         <v>10990.29103211609</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161357</v>
@@ -26484,31 +26484,31 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139334</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-509483.4046097113</v>
+        <v>-457938.6447796583</v>
       </c>
       <c r="C6" t="n">
-        <v>81873.4979111344</v>
+        <v>65205.71460792118</v>
       </c>
       <c r="D6" t="n">
-        <v>81873.49791113417</v>
+        <v>70491.22413645274</v>
       </c>
       <c r="E6" t="n">
-        <v>-409010.0754514093</v>
+        <v>-405881.5050831544</v>
       </c>
       <c r="F6" t="n">
-        <v>218124.5681822583</v>
+        <v>221253.1385505131</v>
       </c>
       <c r="G6" t="n">
-        <v>218124.5681822588</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="H6" t="n">
-        <v>218124.5681822583</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="I6" t="n">
-        <v>218124.5681822581</v>
+        <v>221253.1385505133</v>
       </c>
       <c r="J6" t="n">
-        <v>169059.6234537136</v>
+        <v>182831.7320443791</v>
       </c>
       <c r="K6" t="n">
-        <v>218124.5681822582</v>
+        <v>216122.1714483765</v>
       </c>
       <c r="L6" t="n">
-        <v>218124.5681822583</v>
+        <v>216003.2313245087</v>
       </c>
       <c r="M6" t="n">
-        <v>57668.12631438093</v>
+        <v>60796.69668263585</v>
       </c>
       <c r="N6" t="n">
-        <v>218124.5681822581</v>
+        <v>221253.1385505131</v>
       </c>
       <c r="O6" t="n">
-        <v>218124.5681822581</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="P6" t="n">
-        <v>218124.5681822585</v>
+        <v>221253.1385505134</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663199</v>
@@ -26801,10 +26801,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26813,22 +26813,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697042</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871333</v>
       </c>
       <c r="E3" t="n">
         <v>541.3067596803937</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="E4" t="n">
         <v>643.8758682359728</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799157</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="M4" t="n">
         <v>643.8758682359728</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>240.3006435944652</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>157.8011617537553</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563588</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987471</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>98.16660967244687</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062405</v>
+        <v>85.01480835689223</v>
       </c>
       <c r="L4" t="n">
-        <v>110.4529028080736</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>87.95849928927014</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>108.9616836492158</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>19.95972277939635</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>5.706708427488508</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>88.89841337525095</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880152</v>
+        <v>78.09704212311502</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>159.8307139912877</v>
       </c>
       <c r="P7" t="n">
-        <v>28.45844197068212</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764971</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222663</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127256</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
